--- a/output/fit_clients/fit_round_284.xlsx
+++ b/output/fit_clients/fit_round_284.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2291665992.572494</v>
+        <v>2447760549.996222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09265026856571808</v>
+        <v>0.0706700726120767</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03010190140938514</v>
+        <v>0.03883957703241547</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1145833031.145532</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2387507893.63941</v>
+        <v>1690116001.162841</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1624142043288063</v>
+        <v>0.1198917260548623</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04441103381478018</v>
+        <v>0.04506863916824067</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1193754046.888386</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3731526467.976988</v>
+        <v>4757488351.193127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1474892281620472</v>
+        <v>0.1063103788062556</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02527322187631954</v>
+        <v>0.03302203300429374</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>103</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1865763229.149049</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3208232964.82695</v>
+        <v>4000965815.293893</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1066968557919302</v>
+        <v>0.1094814722364529</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04163347433377201</v>
+        <v>0.03725653395961239</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1604116538.493446</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1927763782.695681</v>
+        <v>2259806335.162658</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1449295059943931</v>
+        <v>0.1330379454751096</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03878274490831642</v>
+        <v>0.04015350728218465</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>963881928.7596408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3150020344.224627</v>
+        <v>3036084576.657705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06830268847093039</v>
+        <v>0.07459035707480081</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03598640737666713</v>
+        <v>0.03102552809402425</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1575010122.535529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3822385806.499491</v>
+        <v>3627737795.953822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1421418290499983</v>
+        <v>0.1925844532230798</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02778979704672839</v>
+        <v>0.03097861746400832</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1911193044.832007</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1790534820.443269</v>
+        <v>1832008555.40151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1478964989526244</v>
+        <v>0.139676067586131</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0271110067437704</v>
+        <v>0.02390820507034675</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>895267465.8953229</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5209451158.957314</v>
+        <v>4670365384.624659</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1937552278641684</v>
+        <v>0.1475466542359825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04731289193238373</v>
+        <v>0.03834994858812709</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>120</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2604725695.03974</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2699886935.35755</v>
+        <v>4196739824.25372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1648321599695091</v>
+        <v>0.1726916588108036</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03452018946831333</v>
+        <v>0.04345695724366486</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>118</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1349943389.735877</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2922993252.493258</v>
+        <v>2241580837.961266</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1896524372530989</v>
+        <v>0.1752539614626565</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03753807680734116</v>
+        <v>0.03805490723123237</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>96</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1461496637.185675</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5063277361.706365</v>
+        <v>3701042255.277543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06213175370323992</v>
+        <v>0.07171091815217322</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02864184431235965</v>
+        <v>0.01968315294012482</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>95</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2531638681.774199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3427582373.858361</v>
+        <v>3706060305.597235</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1535954024627007</v>
+        <v>0.1186018782350303</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03104256408956629</v>
+        <v>0.02828286893424836</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1713791190.399682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1234208271.045797</v>
+        <v>1490968356.044252</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08191040192198559</v>
+        <v>0.09719094396741268</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03021878811129206</v>
+        <v>0.04131427203486719</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>617104160.7597848</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2530452180.01808</v>
+        <v>1917733888.982783</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08374685274486347</v>
+        <v>0.09559138597159078</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04063029463077392</v>
+        <v>0.03492672069157926</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1265226118.102628</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5191811831.881178</v>
+        <v>3988743433.610266</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1338219889025456</v>
+        <v>0.1078214359523493</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04158503054180326</v>
+        <v>0.03959087154392209</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>83</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2595905891.581425</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3631675126.491566</v>
+        <v>3731462000.274384</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1298895796927618</v>
+        <v>0.1372620981685534</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02635614540403398</v>
+        <v>0.02940614524358235</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>93</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1815837547.746522</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>908774316.8675301</v>
+        <v>1365989496.260695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.132226658430792</v>
+        <v>0.1356125851009671</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02356390014628941</v>
+        <v>0.02446925696010572</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>454387165.4573413</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2535404065.074291</v>
+        <v>2556452540.237575</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1360300494589049</v>
+        <v>0.160805588953605</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03139849103275409</v>
+        <v>0.02742818398553945</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1267702001.852644</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2042186734.735136</v>
+        <v>2654406303.077003</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1000773053834675</v>
+        <v>0.08122931300746651</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03846764131744072</v>
+        <v>0.03070777141140581</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1021093399.303595</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3749869580.369307</v>
+        <v>3815846643.238714</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08842164764622751</v>
+        <v>0.1024493900268468</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04035549983757923</v>
+        <v>0.05600775546928446</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1874934806.811732</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1163972469.73469</v>
+        <v>1124967743.987942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1556771613267519</v>
+        <v>0.1851511854082864</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03430464051881781</v>
+        <v>0.03641569521473353</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>581986277.4238249</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3085297481.994668</v>
+        <v>3661192397.38734</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1473252035141585</v>
+        <v>0.1070056412887085</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03663879343994542</v>
+        <v>0.02661012975402546</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>83</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1542648770.506981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>967942905.5834692</v>
+        <v>1333742238.878432</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08414868198007749</v>
+        <v>0.09552345588043151</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02739793974906445</v>
+        <v>0.03077260458163195</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>483971524.1703237</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1259078847.63677</v>
+        <v>1347062461.928658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08412426355965809</v>
+        <v>0.1062361837937158</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03347769439867612</v>
+        <v>0.03884264445053012</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>629539459.3161666</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3635556738.093714</v>
+        <v>2864634823.855758</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1276270166475881</v>
+        <v>0.1484628167396761</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02409213767781603</v>
+        <v>0.02102967695679515</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1817778397.299354</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2827188240.633444</v>
+        <v>2636899976.497859</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1509847810730207</v>
+        <v>0.1006585574122851</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0436228233987068</v>
+        <v>0.03160848066239066</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>91</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1413594116.5417</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4981448440.9195</v>
+        <v>5607650641.261021</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1399672592129944</v>
+        <v>0.09408772332010812</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03736340807148923</v>
+        <v>0.03528437982043983</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>126</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2490724169.307479</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2296379363.199769</v>
+        <v>1479259773.600316</v>
       </c>
       <c r="F30" t="n">
-        <v>0.100642145968044</v>
+        <v>0.1042475882249447</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0387738974512367</v>
+        <v>0.02849453218808561</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1148189752.795177</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>912446698.2626231</v>
+        <v>1304349738.424918</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07643470491319131</v>
+        <v>0.07707803026804684</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04916967977883627</v>
+        <v>0.04519623407520395</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>456223368.2783197</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1487871235.376799</v>
+        <v>1718099033.655439</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09924056079809172</v>
+        <v>0.08733647826625561</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02842257592102321</v>
+        <v>0.02856656583165347</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>743935683.5231618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2313514993.217736</v>
+        <v>2572821944.247548</v>
       </c>
       <c r="F33" t="n">
-        <v>0.176738546777192</v>
+        <v>0.1568627567628949</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06085527369614096</v>
+        <v>0.0480371000135731</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1156757550.687925</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1472023648.519727</v>
+        <v>1116533188.687913</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09890069005089612</v>
+        <v>0.1032159427296701</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02534610799581092</v>
+        <v>0.02257360054071681</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>736011784.7484152</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1054496749.514762</v>
+        <v>1287206698.863899</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0811057522894392</v>
+        <v>0.08215792232244196</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04234889630481887</v>
+        <v>0.04243677902817057</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>527248381.3868105</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3212293071.521679</v>
+        <v>2472479629.523942</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1589687048359052</v>
+        <v>0.1112543650783544</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01993875287741551</v>
+        <v>0.01805238108264193</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>72</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1606146500.682034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1825250761.148004</v>
+        <v>2240246696.891915</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1045873304948035</v>
+        <v>0.084526645588544</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03526076959525629</v>
+        <v>0.03935825638704523</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>75</v>
-      </c>
-      <c r="J37" t="n">
-        <v>912625383.8086865</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2177669236.878136</v>
+        <v>1799411766.643349</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1051727946798118</v>
+        <v>0.08396366640238456</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03261933482377197</v>
+        <v>0.02520940537630523</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1088834571.967249</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1995084848.296562</v>
+        <v>1527794781.356787</v>
       </c>
       <c r="F39" t="n">
-        <v>0.124097592223784</v>
+        <v>0.1404539316882338</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02399507506889698</v>
+        <v>0.03016088788801584</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>997542419.4226167</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359343250.751498</v>
+        <v>1168350597.717234</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1122816835981463</v>
+        <v>0.1286858771721283</v>
       </c>
       <c r="G40" t="n">
-        <v>0.058236485867751</v>
+        <v>0.04251124792848125</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>679671626.7798102</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2257912218.068232</v>
+        <v>2440315853.052394</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1218316771599144</v>
+        <v>0.1318820064078748</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04469815413575077</v>
+        <v>0.02926451308093816</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>69</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1128956158.012687</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3667825530.004454</v>
+        <v>3794376612.663235</v>
       </c>
       <c r="F42" t="n">
-        <v>0.120033874387358</v>
+        <v>0.08243268695798156</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0414975187020122</v>
+        <v>0.03195149468906189</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1833912771.398359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2265999861.519727</v>
+        <v>2408962504.401322</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1701469095931588</v>
+        <v>0.1249431629292993</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0235287647185037</v>
+        <v>0.02514744251091912</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>103</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1133000002.950363</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2235328673.325269</v>
+        <v>2012703914.383547</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07103183578249248</v>
+        <v>0.1031394322424708</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02304870837446612</v>
+        <v>0.03623897597383031</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1117664489.959295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1815053973.028938</v>
+        <v>2495015311.736255</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1774310543970384</v>
+        <v>0.1927626497445821</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05030157602652396</v>
+        <v>0.04059329003548106</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>907526958.7162342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5484047444.629755</v>
+        <v>4537953764.932903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1746004208239166</v>
+        <v>0.1735992911600207</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05223520144709379</v>
+        <v>0.04466195559049474</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>101</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2742023776.80253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4833285735.457314</v>
+        <v>4362748247.803254</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1269925441960293</v>
+        <v>0.1542012245744437</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05608738630193685</v>
+        <v>0.05832540871071139</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>76</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2416642914.082059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3123134423.553012</v>
+        <v>4731117215.129187</v>
       </c>
       <c r="F48" t="n">
-        <v>0.109242073365237</v>
+        <v>0.09241812855244165</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02542053111349722</v>
+        <v>0.02701807056545774</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>94</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1561567297.113902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1492485298.963123</v>
+        <v>1987242008.684242</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1701329467411613</v>
+        <v>0.1553077408046357</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02956277899532138</v>
+        <v>0.03807930509295798</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>746242682.6647503</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2703420848.053899</v>
+        <v>3205541918.962498</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1267165378015002</v>
+        <v>0.1372246209440952</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03985108735659548</v>
+        <v>0.04426559016404511</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>97</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1351710504.974166</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1315422176.963371</v>
+        <v>1069352299.441323</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1709433241788252</v>
+        <v>0.181016679745146</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04736796992220144</v>
+        <v>0.040244942502622</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>657711121.3335459</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4245672609.105761</v>
+        <v>3826285500.61812</v>
       </c>
       <c r="F52" t="n">
-        <v>0.102558110751105</v>
+        <v>0.09075141643138215</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0460303256675595</v>
+        <v>0.0476795435710391</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>117</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2122836346.57085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3269311517.198851</v>
+        <v>2926314481.549581</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1606580046415821</v>
+        <v>0.195140473718976</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02954271304511498</v>
+        <v>0.03389040318175754</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1634655772.404923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4895914781.177562</v>
+        <v>3352198859.880935</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1606467963963135</v>
+        <v>0.1532172025241091</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04222509460848595</v>
+        <v>0.04260081758249793</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>93</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2447957525.028264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3786240630.767229</v>
+        <v>3036576244.859492</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2215341583498134</v>
+        <v>0.1683250670583123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02496388302259406</v>
+        <v>0.03217722590101745</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1893120280.857215</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1494557326.026678</v>
+        <v>1626694932.851088</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1170066344748428</v>
+        <v>0.1325751307294934</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05769535144981401</v>
+        <v>0.04518456508730712</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>747278706.0870391</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3432963470.054111</v>
+        <v>3858550903.655016</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1844244613804074</v>
+        <v>0.1529836725050133</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0252963429097413</v>
+        <v>0.02469827311363013</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>90</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1716481775.783524</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1385726132.920255</v>
+        <v>1796465704.37565</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1429273095941314</v>
+        <v>0.1414383771541116</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0353045015166527</v>
+        <v>0.03303849473925761</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>692863108.0114551</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3546145408.138691</v>
+        <v>3344884260.629675</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1307949167105187</v>
+        <v>0.1280981577293198</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03590841150574649</v>
+        <v>0.04175403043926232</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1773072701.912868</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2375365154.456553</v>
+        <v>2299472794.263337</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1840827867523602</v>
+        <v>0.1387635352199925</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02174688982998586</v>
+        <v>0.02975815190678796</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1187682582.053888</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3090646563.856583</v>
+        <v>2162374583.972978</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1473081160612943</v>
+        <v>0.1757064750884493</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0319347135957877</v>
+        <v>0.0293677069674739</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>98</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1545323253.845282</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1317599856.628426</v>
+        <v>1391828523.983188</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1911328144104709</v>
+        <v>0.1671504715015205</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03618945000199305</v>
+        <v>0.03664929768672183</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>658799884.0037842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3891730707.975998</v>
+        <v>5027709363.118895</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07349350687262966</v>
+        <v>0.07381387133071433</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03026291475169419</v>
+        <v>0.0379337116976621</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1945865421.188598</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4959740370.89517</v>
+        <v>4518274018.664063</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1526360784250864</v>
+        <v>0.172612854460867</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02789347049973206</v>
+        <v>0.03329824994330226</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>88</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2479870288.816631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3687321435.710033</v>
+        <v>5285851515.58575</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1245647290512499</v>
+        <v>0.1407082610524345</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02629892173408936</v>
+        <v>0.02501866035148365</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>103</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1843660755.099893</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4461189966.48776</v>
+        <v>5634249894.185558</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1183252830705605</v>
+        <v>0.1510019611001215</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03219836042447763</v>
+        <v>0.0331567295124847</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>83</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2230594981.517811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2547424852.891309</v>
+        <v>2139777132.926692</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08340837398159394</v>
+        <v>0.09115761580066981</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04263437604046828</v>
+        <v>0.03803289646901559</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>91</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1273712482.991093</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5113968224.293916</v>
+        <v>5502084825.143441</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1058895926878244</v>
+        <v>0.1528304334840592</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05105361497288111</v>
+        <v>0.05085331174447787</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>95</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2556984175.450994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2339226923.270338</v>
+        <v>2373122231.627361</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1791662160145359</v>
+        <v>0.1743346133027631</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04591018566613671</v>
+        <v>0.03640284132016244</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1169613510.429286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3066260556.344591</v>
+        <v>3299165536.295687</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08249213092772545</v>
+        <v>0.06855865386382322</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03436706863867724</v>
+        <v>0.03210971891506893</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>81</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1533130259.452046</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4133305726.883468</v>
+        <v>4419259126.471828</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510389475787201</v>
+        <v>0.1345034121042741</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02742989887143541</v>
+        <v>0.0337992380602039</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>104</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2066652904.444909</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1811264587.233413</v>
+        <v>1929604799.897551</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07524322097014406</v>
+        <v>0.09936895409937982</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04414991878892362</v>
+        <v>0.03442233730009769</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>905632270.3723317</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3244611173.86896</v>
+        <v>2496802276.11988</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08465189123554942</v>
+        <v>0.06955832789979109</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03309406571249199</v>
+        <v>0.04996245942992183</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>108</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1622305560.498638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3755537574.584391</v>
+        <v>3774674622.970332</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1169993525062445</v>
+        <v>0.1235707707533938</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0337074642821627</v>
+        <v>0.0273412026569903</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>97</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1877768787.383705</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1591667290.406067</v>
+        <v>1585299041.920378</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1379484334412609</v>
+        <v>0.1543119733704437</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03009608969812238</v>
+        <v>0.02533217853496782</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>795833647.6667078</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5327078068.65694</v>
+        <v>5186157987.848697</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1070176414457099</v>
+        <v>0.07971678410870332</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02398095105923524</v>
+        <v>0.0335463079956546</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2663539074.688469</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1968825365.752532</v>
+        <v>1723025822.034707</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1126043497425566</v>
+        <v>0.1474459468578283</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02796017021599916</v>
+        <v>0.01965204043993057</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>984412739.7720621</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4502653091.471128</v>
+        <v>4799807331.886909</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1128936959182612</v>
+        <v>0.1347315534586894</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04239688933270105</v>
+        <v>0.03921524180669859</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>99</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2251326475.4678</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1875265674.62133</v>
+        <v>1704338304.921274</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1072378394694264</v>
+        <v>0.1599650029569331</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03300114477208371</v>
+        <v>0.03336727330736816</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>937632937.1202952</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3969733914.083103</v>
+        <v>4241187783.091069</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08071117464766103</v>
+        <v>0.09016456631013418</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02432779592921892</v>
+        <v>0.02847080472257067</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1984866955.005234</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4399156865.011073</v>
+        <v>3985776245.2771</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08640776874453977</v>
+        <v>0.1129230851044792</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03241984083602636</v>
+        <v>0.02659914942170782</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2199578410.53203</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4350574583.014372</v>
+        <v>3534890585.406636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1780637748020873</v>
+        <v>0.1772000343705025</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01886541074956079</v>
+        <v>0.02281262361448113</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2175287311.695866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2091528807.325494</v>
+        <v>1826641224.048898</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1288863921569384</v>
+        <v>0.1305287161601119</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04152593689581197</v>
+        <v>0.04333527112155756</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1045764400.366087</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2123435430.049566</v>
+        <v>2303373754.046236</v>
       </c>
       <c r="F84" t="n">
-        <v>0.114101444881272</v>
+        <v>0.07560740128890388</v>
       </c>
       <c r="G84" t="n">
-        <v>0.042168910992829</v>
+        <v>0.0415777523264222</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1061717701.994883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3495417022.186884</v>
+        <v>3406472989.520235</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1657559591663574</v>
+        <v>0.1432030467373235</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04129809904173027</v>
+        <v>0.0494870166256826</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>106</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1747708625.954751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1730824656.241614</v>
+        <v>1875487238.856673</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1490112456599715</v>
+        <v>0.1475633508371517</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02444452411632732</v>
+        <v>0.02275346288163187</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>36</v>
-      </c>
-      <c r="J86" t="n">
-        <v>865412318.3197836</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1279087616.557776</v>
+        <v>1023035058.38979</v>
       </c>
       <c r="F87" t="n">
-        <v>0.130663033404577</v>
+        <v>0.1389255502543048</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03733810359112542</v>
+        <v>0.04241201947685955</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>639543884.1299623</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3212339813.873276</v>
+        <v>2801167932.462774</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1362953626584183</v>
+        <v>0.1755792415785141</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02611875023306199</v>
+        <v>0.02636418973063344</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>113</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1606169958.366225</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3469367491.653292</v>
+        <v>2220200767.253125</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1061152534900271</v>
+        <v>0.1400037040116363</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0264992351492299</v>
+        <v>0.0402476150719794</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>97</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1734683749.521067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1772475285.055516</v>
+        <v>1842177984.882059</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1050222629103539</v>
+        <v>0.09633379841310702</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03743367021834407</v>
+        <v>0.05617319493938112</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>886237671.1099535</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1963792685.762969</v>
+        <v>1286453083.126945</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1528007211946659</v>
+        <v>0.1510866911634492</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05791299815273138</v>
+        <v>0.05494381525411189</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>981896319.9911728</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2709584976.384573</v>
+        <v>2564693075.525448</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09367779403870742</v>
+        <v>0.07000070775273214</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04316026683976814</v>
+        <v>0.03580684756474311</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>71</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1354792487.965827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4519701397.274694</v>
+        <v>3205718228.749839</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1403121214253604</v>
+        <v>0.142315421136352</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05260538091850474</v>
+        <v>0.05196314441574092</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>89</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2259850665.649521</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1896682930.147562</v>
+        <v>2007253395.841162</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1496287951413789</v>
+        <v>0.1340441310671462</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03283845713009243</v>
+        <v>0.02993210972126067</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>948341449.9838049</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3012892887.851974</v>
+        <v>2396696799.558891</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1297426441193287</v>
+        <v>0.1380102190283192</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04943906172679191</v>
+        <v>0.0371610204666914</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1506446442.7461</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1993182161.374273</v>
+        <v>2232311544.563643</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1360475446939014</v>
+        <v>0.1032115044328588</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03521289313594936</v>
+        <v>0.03390553097799284</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>996591068.385224</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4460869292.193942</v>
+        <v>3707654166.253283</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1430637977948154</v>
+        <v>0.1432439588651791</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01957603571445028</v>
+        <v>0.02681023220464717</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2230434739.538535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3886468144.795567</v>
+        <v>2606518097.1462</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0870591185891598</v>
+        <v>0.1269733897762899</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02614780789697059</v>
+        <v>0.02579996265300852</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1943234117.218031</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2097253073.393087</v>
+        <v>2887540542.191566</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1002935621558837</v>
+        <v>0.1046081220025673</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02255804811489784</v>
+        <v>0.02415745460953831</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>89</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1048626457.247532</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4356209161.008304</v>
+        <v>4284944927.837088</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1695806022274506</v>
+        <v>0.1677426635435834</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02285193832189472</v>
+        <v>0.01935452484260245</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2178104679.602585</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2279005205.074411</v>
+        <v>3060036659.299231</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1560342882281494</v>
+        <v>0.1921635114639548</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05108954609356449</v>
+        <v>0.03927382143644687</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>113</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1139502596.287946</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_284.xlsx
+++ b/output/fit_clients/fit_round_284.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2447760549.996222</v>
+        <v>2144699440.50508</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0706700726120767</v>
+        <v>0.1001439130186952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03883957703241547</v>
+        <v>0.02765852292505347</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1690116001.162841</v>
+        <v>2325982811.151848</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1198917260548623</v>
+        <v>0.1270488704236122</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04506863916824067</v>
+        <v>0.03540013969848412</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4757488351.193127</v>
+        <v>4116050791.330849</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1063103788062556</v>
+        <v>0.1098293616178461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03302203300429374</v>
+        <v>0.02583246918423063</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4000965815.293893</v>
+        <v>3300167617.740195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1094814722364529</v>
+        <v>0.07726188171719765</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03725653395961239</v>
+        <v>0.03167710396755714</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2259806335.162658</v>
+        <v>1779885002.659097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1330379454751096</v>
+        <v>0.1445054266096249</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04015350728218465</v>
+        <v>0.04243748207063132</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3036084576.657705</v>
+        <v>2010387185.525365</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07459035707480081</v>
+        <v>0.06250802537219929</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03102552809402425</v>
+        <v>0.03318681047163381</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3627737795.953822</v>
+        <v>3333767641.078942</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1925844532230798</v>
+        <v>0.1501054773396751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03097861746400832</v>
+        <v>0.02986728841463885</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1832008555.40151</v>
+        <v>2157973612.520606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.139676067586131</v>
+        <v>0.1227426386518352</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02390820507034675</v>
+        <v>0.03357974704439359</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4670365384.624659</v>
+        <v>4570444721.248478</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1475466542359825</v>
+        <v>0.171348789814106</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03834994858812709</v>
+        <v>0.05159935224847992</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4196739824.25372</v>
+        <v>3198696424.816953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726916588108036</v>
+        <v>0.1664003510808408</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04345695724366486</v>
+        <v>0.03915591529513653</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2241580837.961266</v>
+        <v>3096718522.205354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1752539614626565</v>
+        <v>0.150494828233771</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03805490723123237</v>
+        <v>0.0484871445820329</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3701042255.277543</v>
+        <v>4837166072.285246</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07171091815217322</v>
+        <v>0.06380374231234764</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01968315294012482</v>
+        <v>0.02069650155084627</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3706060305.597235</v>
+        <v>2744401918.188362</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1186018782350303</v>
+        <v>0.1682596419550281</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02828286893424836</v>
+        <v>0.0279745716921269</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1490968356.044252</v>
+        <v>1411694419.676837</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09719094396741268</v>
+        <v>0.08018938696214886</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04131427203486719</v>
+        <v>0.04627058272738167</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1917733888.982783</v>
+        <v>2696675391.797252</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09559138597159078</v>
+        <v>0.1037747964756474</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03492672069157926</v>
+        <v>0.04436466137631875</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3988743433.610266</v>
+        <v>5156230762.062294</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1078214359523493</v>
+        <v>0.1401102536890707</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03959087154392209</v>
+        <v>0.04858178055449175</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3731462000.274384</v>
+        <v>3443308376.196975</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1372620981685534</v>
+        <v>0.1539392996801349</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02940614524358235</v>
+        <v>0.02496253238170323</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1365989496.260695</v>
+        <v>858323272.8640422</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1356125851009671</v>
+        <v>0.1199410755324928</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02446925696010572</v>
+        <v>0.02171281384959838</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2556452540.237575</v>
+        <v>2443592821.72421</v>
       </c>
       <c r="F20" t="n">
-        <v>0.160805588953605</v>
+        <v>0.1349636458672673</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02742818398553945</v>
+        <v>0.02999933240247387</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2654406303.077003</v>
+        <v>1981528687.62861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08122931300746651</v>
+        <v>0.06797138456613165</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03070777141140581</v>
+        <v>0.03052802930820631</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3815846643.238714</v>
+        <v>3896426991.776796</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1024493900268468</v>
+        <v>0.1156769989467935</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05600775546928446</v>
+        <v>0.047767239906725</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1124967743.987942</v>
+        <v>1267863620.450406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1851511854082864</v>
+        <v>0.1621204336251229</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03641569521473353</v>
+        <v>0.04856229114221486</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3661192397.38734</v>
+        <v>3196219639.307843</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1070056412887085</v>
+        <v>0.1059088790324935</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02661012975402546</v>
+        <v>0.03045741145722751</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1333742238.878432</v>
+        <v>1361335321.372499</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09552345588043151</v>
+        <v>0.07974570704833958</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03077260458163195</v>
+        <v>0.02887508546590334</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1347062461.928658</v>
+        <v>1165365573.853139</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1062361837937158</v>
+        <v>0.1072295018954656</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03884264445053012</v>
+        <v>0.03483915372183769</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2864634823.855758</v>
+        <v>4622215652.179342</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1484628167396761</v>
+        <v>0.1533186966170731</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02102967695679515</v>
+        <v>0.02477082340569587</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2636899976.497859</v>
+        <v>3491288979.306848</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1006585574122851</v>
+        <v>0.1218921697402521</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03160848066239066</v>
+        <v>0.04699086812817837</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5607650641.261021</v>
+        <v>5520274844.0868</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09408772332010812</v>
+        <v>0.1509379358426167</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03528437982043983</v>
+        <v>0.02812169817713693</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1479259773.600316</v>
+        <v>2226762100.333665</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1042475882249447</v>
+        <v>0.1097064651658489</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02849453218808561</v>
+        <v>0.0290987091873042</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1304349738.424918</v>
+        <v>1160753066.885147</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07707803026804684</v>
+        <v>0.09168342161356034</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04519623407520395</v>
+        <v>0.04263220032064173</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1718099033.655439</v>
+        <v>1599866273.57802</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08733647826625561</v>
+        <v>0.09559882028518735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02856656583165347</v>
+        <v>0.02947770496556619</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2572821944.247548</v>
+        <v>3116558041.243014</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1568627567628949</v>
+        <v>0.1678251254392071</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0480371000135731</v>
+        <v>0.03882502135567022</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1116533188.687913</v>
+        <v>1483042365.889305</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1032159427296701</v>
+        <v>0.07629197792159324</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02257360054071681</v>
+        <v>0.02133367727867689</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1287206698.863899</v>
+        <v>1117149908.525223</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08215792232244196</v>
+        <v>0.1062189634834912</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04243677902817057</v>
+        <v>0.03926943957458121</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2472479629.523942</v>
+        <v>2627145983.835536</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1112543650783544</v>
+        <v>0.1620305447369742</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01805238108264193</v>
+        <v>0.02357533380004803</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2240246696.891915</v>
+        <v>2874479109.573139</v>
       </c>
       <c r="F37" t="n">
-        <v>0.084526645588544</v>
+        <v>0.07145419480899422</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03935825638704523</v>
+        <v>0.037268535592918</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1799411766.643349</v>
+        <v>1498968538.780839</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08396366640238456</v>
+        <v>0.08485860264385037</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02520940537630523</v>
+        <v>0.03318844778526499</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1527794781.356787</v>
+        <v>2176921733.269859</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1404539316882338</v>
+        <v>0.1831657887405146</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03016088788801584</v>
+        <v>0.02657018065332284</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1168350597.717234</v>
+        <v>1297868494.398718</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1286858771721283</v>
+        <v>0.1321943438600449</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04251124792848125</v>
+        <v>0.05224745523505539</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2440315853.052394</v>
+        <v>2782816016.594679</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1318820064078748</v>
+        <v>0.1271206658525677</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02926451308093816</v>
+        <v>0.03835578764145355</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3794376612.663235</v>
+        <v>2807534510.609131</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08243268695798156</v>
+        <v>0.09062954356598552</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03195149468906189</v>
+        <v>0.02899219231825984</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2408962504.401322</v>
+        <v>1858849719.517896</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1249431629292993</v>
+        <v>0.1327854582278465</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02514744251091912</v>
+        <v>0.02364567292809854</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2012703914.383547</v>
+        <v>2135272078.059821</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1031394322424708</v>
+        <v>0.06637477774867635</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03623897597383031</v>
+        <v>0.02592496052350848</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2495015311.736255</v>
+        <v>1826274963.711024</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1927626497445821</v>
+        <v>0.1236325273269713</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04059329003548106</v>
+        <v>0.03394338104338284</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4537953764.932903</v>
+        <v>5167113647.906855</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1735992911600207</v>
+        <v>0.1367143822871212</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04466195559049474</v>
+        <v>0.0548072652298708</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4362748247.803254</v>
+        <v>4109865543.482349</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1542012245744437</v>
+        <v>0.1310969768867732</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05832540871071139</v>
+        <v>0.04160442450749481</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4731117215.129187</v>
+        <v>2883506795.040998</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09241812855244165</v>
+        <v>0.1009987803714845</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02701807056545774</v>
+        <v>0.02764427659364675</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1987242008.684242</v>
+        <v>1233861657.649323</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1553077408046357</v>
+        <v>0.1310830348206787</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03807930509295798</v>
+        <v>0.02798885357216618</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3205541918.962498</v>
+        <v>2553861398.180027</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1372246209440952</v>
+        <v>0.1624314009867607</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04426559016404511</v>
+        <v>0.04627080325164851</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1069352299.441323</v>
+        <v>1370165369.610171</v>
       </c>
       <c r="F51" t="n">
-        <v>0.181016679745146</v>
+        <v>0.1643984390468078</v>
       </c>
       <c r="G51" t="n">
-        <v>0.040244942502622</v>
+        <v>0.04473830445517049</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3826285500.61812</v>
+        <v>3956936097.4467</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09075141643138215</v>
+        <v>0.09495593975536996</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0476795435710391</v>
+        <v>0.05906290799346238</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2926314481.549581</v>
+        <v>3382991922.102532</v>
       </c>
       <c r="F53" t="n">
-        <v>0.195140473718976</v>
+        <v>0.1238540740265315</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03389040318175754</v>
+        <v>0.02521169405230467</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3352198859.880935</v>
+        <v>3609420198.989157</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1532172025241091</v>
+        <v>0.1086019549374527</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04260081758249793</v>
+        <v>0.03768780269277809</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3036576244.859492</v>
+        <v>4404207059.005219</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1683250670583123</v>
+        <v>0.2183305464175984</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03217722590101745</v>
+        <v>0.02113653588159131</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1626694932.851088</v>
+        <v>1302361763.583479</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1325751307294934</v>
+        <v>0.1111041419186116</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04518456508730712</v>
+        <v>0.05683952838426384</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3858550903.655016</v>
+        <v>3347626194.335657</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1529836725050133</v>
+        <v>0.1591248661403155</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02469827311363013</v>
+        <v>0.0210292638283814</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1796465704.37565</v>
+        <v>1185492010.906487</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1414383771541116</v>
+        <v>0.1931353572171415</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03303849473925761</v>
+        <v>0.03493595131535863</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3344884260.629675</v>
+        <v>3762849169.19599</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1280981577293198</v>
+        <v>0.1184833581811351</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04175403043926232</v>
+        <v>0.03325548486275712</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2299472794.263337</v>
+        <v>2604207145.006064</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1387635352199925</v>
+        <v>0.1939875336247774</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02975815190678796</v>
+        <v>0.02199964619230786</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2162374583.972978</v>
+        <v>2152415043.330474</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1757064750884493</v>
+        <v>0.1470933725279438</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0293677069674739</v>
+        <v>0.02048101407127629</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1391828523.983188</v>
+        <v>2103656709.385634</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1671504715015205</v>
+        <v>0.1328815044659836</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03664929768672183</v>
+        <v>0.04595656773447211</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5027709363.118895</v>
+        <v>3964144205.512207</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07381387133071433</v>
+        <v>0.1040734480784648</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0379337116976621</v>
+        <v>0.03688676260681185</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4518274018.664063</v>
+        <v>4945762783.120988</v>
       </c>
       <c r="F64" t="n">
-        <v>0.172612854460867</v>
+        <v>0.1232264397047051</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03329824994330226</v>
+        <v>0.02814674245319772</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5285851515.58575</v>
+        <v>5475326213.294665</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1407082610524345</v>
+        <v>0.1642918188297977</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02501866035148365</v>
+        <v>0.02465797354002826</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5634249894.185558</v>
+        <v>4393394274.74702</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1510019611001215</v>
+        <v>0.1350453929549298</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0331567295124847</v>
+        <v>0.04271627315948549</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2139777132.926692</v>
+        <v>3406477522.279304</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09115761580066981</v>
+        <v>0.08503065153236432</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03803289646901559</v>
+        <v>0.04923726187796797</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5502084825.143441</v>
+        <v>5063065081.603864</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1528304334840592</v>
+        <v>0.1475162888860689</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05085331174447787</v>
+        <v>0.03185668622170574</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2373122231.627361</v>
+        <v>2364065734.04877</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1743346133027631</v>
+        <v>0.1500249962917282</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03640284132016244</v>
+        <v>0.05465400415552862</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3299165536.295687</v>
+        <v>3117304664.442021</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06855865386382322</v>
+        <v>0.08454108436752389</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03210971891506893</v>
+        <v>0.03525971450305283</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4419259126.471828</v>
+        <v>4998081525.858594</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1345034121042741</v>
+        <v>0.1222808090815077</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0337992380602039</v>
+        <v>0.03062361491088113</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1929604799.897551</v>
+        <v>2069425703.543756</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09936895409937982</v>
+        <v>0.09333434847851008</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03442233730009769</v>
+        <v>0.03727880789838728</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2496802276.11988</v>
+        <v>2429432812.86946</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06955832789979109</v>
+        <v>0.08233457816413972</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04996245942992183</v>
+        <v>0.04352889470089796</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3774674622.970332</v>
+        <v>2683462955.542202</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1235707707533938</v>
+        <v>0.1339378532673113</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0273412026569903</v>
+        <v>0.02692637512245167</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1585299041.920378</v>
+        <v>2193555897.207693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1543119733704437</v>
+        <v>0.1066988748156424</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02533217853496782</v>
+        <v>0.03362879066150682</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5186157987.848697</v>
+        <v>5272922133.765103</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07971678410870332</v>
+        <v>0.1027860874652663</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0335463079956546</v>
+        <v>0.02206037553301348</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1723025822.034707</v>
+        <v>1962700021.263364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1474459468578283</v>
+        <v>0.176385111938999</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01965204043993057</v>
+        <v>0.03082035230834441</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4799807331.886909</v>
+        <v>3413171016.012152</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1347315534586894</v>
+        <v>0.119971288780452</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03921524180669859</v>
+        <v>0.05060414761644375</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1704338304.921274</v>
+        <v>1272801528.712151</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1599650029569331</v>
+        <v>0.1408401584737177</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03336727330736816</v>
+        <v>0.03985586823110582</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4241187783.091069</v>
+        <v>4001794107.514893</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09016456631013418</v>
+        <v>0.1110865621416286</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02847080472257067</v>
+        <v>0.02863877350906897</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3985776245.2771</v>
+        <v>4520732594.44923</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1129230851044792</v>
+        <v>0.09775715131305307</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02659914942170782</v>
+        <v>0.02614295348495503</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3534890585.406636</v>
+        <v>5054133216.256727</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1772000343705025</v>
+        <v>0.1338500045895096</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02281262361448113</v>
+        <v>0.02070972631034425</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1826641224.048898</v>
+        <v>2020413345.764117</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1305287161601119</v>
+        <v>0.1265013524700706</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04333527112155756</v>
+        <v>0.04450917634634806</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2303373754.046236</v>
+        <v>1995951714.128436</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07560740128890388</v>
+        <v>0.09102321717731894</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0415777523264222</v>
+        <v>0.0349545056115894</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3406472989.520235</v>
+        <v>2834897827.202459</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1432030467373235</v>
+        <v>0.1712746677861794</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0494870166256826</v>
+        <v>0.0467460587168728</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1875487238.856673</v>
+        <v>2158570706.735242</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1475633508371517</v>
+        <v>0.1258481168809091</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02275346288163187</v>
+        <v>0.02731912071734422</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1023035058.38979</v>
+        <v>1034298855.879486</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1389255502543048</v>
+        <v>0.1861459537923421</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04241201947685955</v>
+        <v>0.04180195902346173</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2801167932.462774</v>
+        <v>3108725519.386874</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1755792415785141</v>
+        <v>0.1708045670781423</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02636418973063344</v>
+        <v>0.02608707347687194</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2220200767.253125</v>
+        <v>2914606295.612186</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1400037040116363</v>
+        <v>0.1052271170405573</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0402476150719794</v>
+        <v>0.02821228023471319</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1842177984.882059</v>
+        <v>1861200107.505353</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09633379841310702</v>
+        <v>0.1242320824506743</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05617319493938112</v>
+        <v>0.05461630335270599</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1286453083.126945</v>
+        <v>2036506206.567566</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1510866911634492</v>
+        <v>0.1383685919272427</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05494381525411189</v>
+        <v>0.03957480201381351</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2564693075.525448</v>
+        <v>2843211490.051513</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07000070775273214</v>
+        <v>0.06646598948833264</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03580684756474311</v>
+        <v>0.04110124961411778</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3205718228.749839</v>
+        <v>3214971057.380718</v>
       </c>
       <c r="F93" t="n">
-        <v>0.142315421136352</v>
+        <v>0.09049283817561057</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05196314441574092</v>
+        <v>0.0547938293626232</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2007253395.841162</v>
+        <v>2184483824.880057</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1340441310671462</v>
+        <v>0.1388964445858303</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02993210972126067</v>
+        <v>0.03821244571169763</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2396696799.558891</v>
+        <v>2982797019.612743</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1380102190283192</v>
+        <v>0.1272686384214523</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0371610204666914</v>
+        <v>0.03593638168633101</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2232311544.563643</v>
+        <v>1889177234.626834</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1032115044328588</v>
+        <v>0.09001157507671625</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03390553097799284</v>
+        <v>0.04617377818389774</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3707654166.253283</v>
+        <v>4589193059.697219</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1432439588651791</v>
+        <v>0.107501050037326</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02681023220464717</v>
+        <v>0.01826834577141263</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2606518097.1462</v>
+        <v>3927884846.875493</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1269733897762899</v>
+        <v>0.08396450213659029</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02579996265300852</v>
+        <v>0.02176982173752072</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2887540542.191566</v>
+        <v>3246416698.77795</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1046081220025673</v>
+        <v>0.1404091099245993</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02415745460953831</v>
+        <v>0.03330921929796306</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4284944927.837088</v>
+        <v>4667839595.313793</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1677426635435834</v>
+        <v>0.1304322866982495</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01935452484260245</v>
+        <v>0.02735466289351588</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3060036659.299231</v>
+        <v>2426025992.345351</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1921635114639548</v>
+        <v>0.2036280615723696</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03927382143644687</v>
+        <v>0.05757653760039576</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_284.xlsx
+++ b/output/fit_clients/fit_round_284.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2144699440.50508</v>
+        <v>2099818643.063077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1001439130186952</v>
+        <v>0.08491578942229516</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02765852292505347</v>
+        <v>0.04445981142023451</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2325982811.151848</v>
+        <v>1691741679.061389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1270488704236122</v>
+        <v>0.1485079565226852</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03540013969848412</v>
+        <v>0.03687504971529446</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4116050791.330849</v>
+        <v>4405616089.475929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1098293616178461</v>
+        <v>0.1045381263853216</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02583246918423063</v>
+        <v>0.02644156921371863</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>151</v>
+      </c>
+      <c r="J4" t="n">
+        <v>283</v>
+      </c>
+      <c r="K4" t="n">
+        <v>85.67181634653763</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3300167617.740195</v>
+        <v>2982154172.420626</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07726188171719765</v>
+        <v>0.09102379278697108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03167710396755714</v>
+        <v>0.04886666882521947</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>115</v>
+      </c>
+      <c r="J5" t="n">
+        <v>283</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64.05028250333521</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1779885002.659097</v>
+        <v>2798487531.606874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1445054266096249</v>
+        <v>0.1367755484124864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04243748207063132</v>
+        <v>0.05415769348394295</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2010387185.525365</v>
+        <v>2553687066.088115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06250802537219929</v>
+        <v>0.06786577189992617</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03318681047163381</v>
+        <v>0.04776669189853624</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3333767641.078942</v>
+        <v>3767338862.693367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1501054773396751</v>
+        <v>0.184675644010025</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02986728841463885</v>
+        <v>0.02899591324786305</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>284</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2157973612.520606</v>
+        <v>1670830261.748271</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1227426386518352</v>
+        <v>0.1464609008248786</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03357974704439359</v>
+        <v>0.02719291429899828</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4570444721.248478</v>
+        <v>4635138989.20926</v>
       </c>
       <c r="F10" t="n">
-        <v>0.171348789814106</v>
+        <v>0.1962369970348648</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05159935224847992</v>
+        <v>0.05401220595425048</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>255</v>
+      </c>
+      <c r="J10" t="n">
+        <v>283</v>
+      </c>
+      <c r="K10" t="n">
+        <v>88.00623175262903</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3198696424.816953</v>
+        <v>4099349852.120541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1664003510808408</v>
+        <v>0.134488908517994</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03915591529513653</v>
+        <v>0.03663213125795715</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>114</v>
+      </c>
+      <c r="J11" t="n">
+        <v>284</v>
+      </c>
+      <c r="K11" t="n">
+        <v>101.6251508317183</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3096718522.205354</v>
+        <v>2966567842.229075</v>
       </c>
       <c r="F12" t="n">
-        <v>0.150494828233771</v>
+        <v>0.1506973333008744</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0484871445820329</v>
+        <v>0.03997395716729686</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +894,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4837166072.285246</v>
+        <v>3805636455.295253</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06380374231234764</v>
+        <v>0.07720172927587209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02069650155084627</v>
+        <v>0.02987869007439102</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>145</v>
+      </c>
+      <c r="J13" t="n">
+        <v>283</v>
+      </c>
+      <c r="K13" t="n">
+        <v>89.73922063909988</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +931,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2744401918.188362</v>
+        <v>3484884803.534195</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1682596419550281</v>
+        <v>0.129115803852022</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0279745716921269</v>
+        <v>0.04257100902344242</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>284</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1411694419.676837</v>
+        <v>1445037528.36119</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08018938696214886</v>
+        <v>0.08753617099724356</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04627058272738167</v>
+        <v>0.04897546008873482</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2696675391.797252</v>
+        <v>2785625465.685319</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1037747964756474</v>
+        <v>0.07051766567307496</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04436466137631875</v>
+        <v>0.04797784941019348</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1036,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5156230762.062294</v>
+        <v>3733793207.695992</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1401102536890707</v>
+        <v>0.1571701623725801</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04858178055449175</v>
+        <v>0.04994972078252536</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>136</v>
+      </c>
+      <c r="J17" t="n">
+        <v>283</v>
+      </c>
+      <c r="K17" t="n">
+        <v>80.69915658818334</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1073,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3443308376.196975</v>
+        <v>2705688702.474789</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1539392996801349</v>
+        <v>0.1545709037983558</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02496253238170323</v>
+        <v>0.02855159486993455</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>858323272.8640422</v>
+        <v>993664468.9056482</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1199410755324928</v>
+        <v>0.185523838601772</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02171281384959838</v>
+        <v>0.01989187993788671</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2443592821.72421</v>
+        <v>1964992767.455876</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1349636458672673</v>
+        <v>0.1225936866382867</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02999933240247387</v>
+        <v>0.02323267454238412</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1981528687.62861</v>
+        <v>2730169125.576862</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06797138456613165</v>
+        <v>0.09542029275883908</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03052802930820631</v>
+        <v>0.04177279049222701</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3896426991.776796</v>
+        <v>3840137135.883292</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1156769989467935</v>
+        <v>0.1073900883726215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.047767239906725</v>
+        <v>0.04197200808010403</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>284</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1267863620.450406</v>
+        <v>1188258079.315682</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1621204336251229</v>
+        <v>0.164515684942583</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04856229114221486</v>
+        <v>0.04175222095828525</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3196219639.307843</v>
+        <v>3281918908.144832</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1059088790324935</v>
+        <v>0.131736232682829</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03045741145722751</v>
+        <v>0.03539534751936056</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>282</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1361335321.372499</v>
+        <v>962984853.8229066</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07974570704833958</v>
+        <v>0.08851055999617982</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02887508546590334</v>
+        <v>0.02408567148383666</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1165365573.853139</v>
+        <v>1147443797.741342</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1072295018954656</v>
+        <v>0.08946096037136608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03483915372183769</v>
+        <v>0.03202532315208063</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4622215652.179342</v>
+        <v>3511085686.419483</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1533186966170731</v>
+        <v>0.121113727442838</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02477082340569587</v>
+        <v>0.01658513507964855</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>116</v>
+      </c>
+      <c r="J27" t="n">
+        <v>283</v>
+      </c>
+      <c r="K27" t="n">
+        <v>71.38415309343593</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3491288979.306848</v>
+        <v>3763294943.512389</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1218921697402521</v>
+        <v>0.1031125204752256</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04699086812817837</v>
+        <v>0.03705302691252663</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>58</v>
+      </c>
+      <c r="J28" t="n">
+        <v>284</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5520274844.0868</v>
+        <v>4390278420.5388</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1509379358426167</v>
+        <v>0.1094514466711196</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02812169817713693</v>
+        <v>0.02908309760325621</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>270</v>
+      </c>
+      <c r="J29" t="n">
+        <v>284</v>
+      </c>
+      <c r="K29" t="n">
+        <v>90.44429717545974</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2226762100.333665</v>
+        <v>1885201611.003285</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1097064651658489</v>
+        <v>0.1172364808683926</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0290987091873042</v>
+        <v>0.02477262937297225</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1160753066.885147</v>
+        <v>1186587472.046986</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09168342161356034</v>
+        <v>0.07139448019066298</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04263220032064173</v>
+        <v>0.04403669732326569</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1599866273.57802</v>
+        <v>1623484503.620943</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09559882028518735</v>
+        <v>0.1125565304362144</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02947770496556619</v>
+        <v>0.02340012057088991</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3116558041.243014</v>
+        <v>2749189739.957697</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1678251254392071</v>
+        <v>0.1854461874584221</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03882502135567022</v>
+        <v>0.04572386824007243</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1483042365.889305</v>
+        <v>1048848195.236581</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07629197792159324</v>
+        <v>0.1108736529729868</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02133367727867689</v>
+        <v>0.02266117590250986</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117149908.525223</v>
+        <v>1200670432.640284</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1062189634834912</v>
+        <v>0.08819854218974536</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03926943957458121</v>
+        <v>0.02817828153231833</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2627145983.835536</v>
+        <v>2932046245.746124</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1620305447369742</v>
+        <v>0.1275195390924551</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02357533380004803</v>
+        <v>0.01813768339445971</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2874479109.573139</v>
+        <v>1818822170.236618</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07145419480899422</v>
+        <v>0.1068856848543095</v>
       </c>
       <c r="G37" t="n">
-        <v>0.037268535592918</v>
+        <v>0.02716814872774607</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1498968538.780839</v>
+        <v>2099147602.967913</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08485860264385037</v>
+        <v>0.08298806436091136</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03318844778526499</v>
+        <v>0.02560844034914835</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2176921733.269859</v>
+        <v>1515158790.997298</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1831657887405146</v>
+        <v>0.184109065947973</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02657018065332284</v>
+        <v>0.02645663440723628</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1297868494.398718</v>
+        <v>1415119425.767048</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1321943438600449</v>
+        <v>0.1257302940750695</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05224745523505539</v>
+        <v>0.05687725562039906</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2782816016.594679</v>
+        <v>2389008150.575829</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1271206658525677</v>
+        <v>0.1074667611211367</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03835578764145355</v>
+        <v>0.03757895673670966</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2807534510.609131</v>
+        <v>2930061946.608024</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09062954356598552</v>
+        <v>0.1178189986584925</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02899219231825984</v>
+        <v>0.04360624614806632</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>118</v>
+      </c>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1858849719.517896</v>
+        <v>1904524910.329814</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1327854582278465</v>
+        <v>0.1588524706075316</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02364567292809854</v>
+        <v>0.02209681367240047</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2135272078.059821</v>
+        <v>1545963287.980274</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06637477774867635</v>
+        <v>0.0944145476072244</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02592496052350848</v>
+        <v>0.031014647708264</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1826274963.711024</v>
+        <v>1950892333.196371</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1236325273269713</v>
+        <v>0.1515690022462222</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03394338104338284</v>
+        <v>0.0391638526476632</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5167113647.906855</v>
+        <v>4688141620.894008</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1367143822871212</v>
+        <v>0.1717273234713944</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0548072652298708</v>
+        <v>0.05703690832301208</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>167</v>
+      </c>
+      <c r="J46" t="n">
+        <v>284</v>
+      </c>
+      <c r="K46" t="n">
+        <v>91.65164247960443</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4109865543.482349</v>
+        <v>3469431137.864048</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1310969768867732</v>
+        <v>0.1677822517180813</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04160442450749481</v>
+        <v>0.05216626996906434</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>127</v>
+      </c>
+      <c r="J47" t="n">
+        <v>281</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2883506795.040998</v>
+        <v>4364967772.961208</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1009987803714845</v>
+        <v>0.07150153822509128</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02764427659364675</v>
+        <v>0.03915327831276463</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>141</v>
+      </c>
+      <c r="J48" t="n">
+        <v>284</v>
+      </c>
+      <c r="K48" t="n">
+        <v>96.08546375503558</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1233861657.649323</v>
+        <v>1630770606.504117</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1310830348206787</v>
+        <v>0.1210671808049942</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02798885357216618</v>
+        <v>0.02745236095623844</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2553861398.180027</v>
+        <v>2655635117.141389</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1624314009867607</v>
+        <v>0.1704946376199174</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04627080325164851</v>
+        <v>0.04268429942242211</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>91</v>
+      </c>
+      <c r="J50" t="n">
+        <v>283</v>
+      </c>
+      <c r="K50" t="n">
+        <v>46.40819565279082</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1370165369.610171</v>
+        <v>1366224828.593292</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1643984390468078</v>
+        <v>0.1758081089273398</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04473830445517049</v>
+        <v>0.04503028602420999</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3956936097.4467</v>
+        <v>4784872117.259697</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09495593975536996</v>
+        <v>0.09351835971088464</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05906290799346238</v>
+        <v>0.05298701543565652</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>177</v>
+      </c>
+      <c r="J52" t="n">
+        <v>284</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3382991922.102532</v>
+        <v>2369685809.89764</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1238540740265315</v>
+        <v>0.1592088728355579</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02521169405230467</v>
+        <v>0.02192659777201961</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3609420198.989157</v>
+        <v>4412846376.315302</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1086019549374527</v>
+        <v>0.1471848394353112</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03768780269277809</v>
+        <v>0.03234673674352471</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>150</v>
+      </c>
+      <c r="J54" t="n">
+        <v>283</v>
+      </c>
+      <c r="K54" t="n">
+        <v>89.23225074596634</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2380,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4404207059.005219</v>
+        <v>3316077122.146404</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2183305464175984</v>
+        <v>0.2181386658566046</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02113653588159131</v>
+        <v>0.022836408938228</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>129</v>
+      </c>
+      <c r="J55" t="n">
+        <v>283</v>
+      </c>
+      <c r="K55" t="n">
+        <v>68.03785473534167</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302361763.583479</v>
+        <v>1424406673.707038</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1111041419186116</v>
+        <v>0.1000714712792104</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05683952838426384</v>
+        <v>0.05464456784446867</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2452,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3347626194.335657</v>
+        <v>3795445068.092025</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1591248661403155</v>
+        <v>0.1582577744161027</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0210292638283814</v>
+        <v>0.01847105551056749</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>115</v>
+      </c>
+      <c r="J57" t="n">
+        <v>284</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1185492010.906487</v>
+        <v>1349316712.88686</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1931353572171415</v>
+        <v>0.1534760636150125</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03493595131535863</v>
+        <v>0.03416000477878525</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2522,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3762849169.19599</v>
+        <v>4718207477.239762</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1184833581811351</v>
+        <v>0.116805385294993</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03325548486275712</v>
+        <v>0.04130080220925338</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>137</v>
+      </c>
+      <c r="J59" t="n">
+        <v>283</v>
+      </c>
+      <c r="K59" t="n">
+        <v>83.33676038129738</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2553,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2604207145.006064</v>
+        <v>2385389248.654428</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1939875336247774</v>
+        <v>0.1599198029470725</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02199964619230786</v>
+        <v>0.02771478329893838</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>47</v>
+      </c>
+      <c r="J60" t="n">
+        <v>283</v>
+      </c>
+      <c r="K60" t="n">
+        <v>40.45024890761302</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2596,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2152415043.330474</v>
+        <v>3220711655.430499</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1470933725279438</v>
+        <v>0.1436226290060274</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02048101407127629</v>
+        <v>0.02976914222912458</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2103656709.385634</v>
+        <v>1877671834.975934</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1328815044659836</v>
+        <v>0.154749071387537</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04595656773447211</v>
+        <v>0.03002771092579313</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2666,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3964144205.512207</v>
+        <v>3435955354.272927</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1040734480784648</v>
+        <v>0.06571675983840662</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03688676260681185</v>
+        <v>0.04464938378376473</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>138</v>
+      </c>
+      <c r="J63" t="n">
+        <v>283</v>
+      </c>
+      <c r="K63" t="n">
+        <v>69.12442238501377</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2697,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4945762783.120988</v>
+        <v>4041978829.146266</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1232264397047051</v>
+        <v>0.1273537616872933</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02814674245319772</v>
+        <v>0.03372179934378045</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>139</v>
+      </c>
+      <c r="J64" t="n">
+        <v>284</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2732,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5475326213.294665</v>
+        <v>4870623245.849596</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1642918188297977</v>
+        <v>0.1699504734545082</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02465797354002826</v>
+        <v>0.02476456554262254</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>227</v>
+      </c>
+      <c r="J65" t="n">
+        <v>284</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2773,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4393394274.74702</v>
+        <v>4640039358.167997</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1350453929549298</v>
+        <v>0.1181321802165237</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04271627315948549</v>
+        <v>0.04933881532141289</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>140</v>
+      </c>
+      <c r="J66" t="n">
+        <v>284</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3406477522.279304</v>
+        <v>3337305396.140821</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08503065153236432</v>
+        <v>0.08404380396522446</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04923726187796797</v>
+        <v>0.03751080955061996</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2843,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5063065081.603864</v>
+        <v>6049357791.247501</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1475162888860689</v>
+        <v>0.125299659185102</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03185668622170574</v>
+        <v>0.04479029412534109</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>147</v>
+      </c>
+      <c r="J68" t="n">
+        <v>284</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2364065734.04877</v>
+        <v>1966237740.220486</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1500249962917282</v>
+        <v>0.1440731739021623</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05465400415552862</v>
+        <v>0.04846720738935746</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3117304664.442021</v>
+        <v>2571535571.835013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08454108436752389</v>
+        <v>0.09722252604662157</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03525971450305283</v>
+        <v>0.0416044113580538</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>41</v>
+      </c>
+      <c r="J70" t="n">
+        <v>280</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4998081525.858594</v>
+        <v>4552461185.281044</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1222808090815077</v>
+        <v>0.1691860887837624</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03062361491088113</v>
+        <v>0.02467004180347188</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>213</v>
+      </c>
+      <c r="J71" t="n">
+        <v>284</v>
+      </c>
+      <c r="K71" t="n">
+        <v>90.35157797480224</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2069425703.543756</v>
+        <v>2210680142.911447</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09333434847851008</v>
+        <v>0.1058080998070711</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03727880789838728</v>
+        <v>0.05133882738088673</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2429432812.86946</v>
+        <v>3347233812.804027</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08233457816413972</v>
+        <v>0.1042952227925052</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04352889470089796</v>
+        <v>0.05216384504320645</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2683462955.542202</v>
+        <v>2459044030.599553</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1339378532673113</v>
+        <v>0.1649684496271616</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02692637512245167</v>
+        <v>0.02910828820383418</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2193555897.207693</v>
+        <v>2407773681.103608</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1066988748156424</v>
+        <v>0.1531340838691151</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03362879066150682</v>
+        <v>0.02690623966125698</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5272922133.765103</v>
+        <v>3257501696.532852</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1027860874652663</v>
+        <v>0.1018248077343364</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02206037553301348</v>
+        <v>0.03323133807047865</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>133</v>
+      </c>
+      <c r="J76" t="n">
+        <v>282</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1962700021.263364</v>
+        <v>1591966170.790907</v>
       </c>
       <c r="F77" t="n">
-        <v>0.176385111938999</v>
+        <v>0.1206730446079454</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03082035230834441</v>
+        <v>0.02088938825968392</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3413171016.012152</v>
+        <v>4302426580.139721</v>
       </c>
       <c r="F78" t="n">
-        <v>0.119971288780452</v>
+        <v>0.1191930770012433</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05060414761644375</v>
+        <v>0.05280594864918071</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>141</v>
+      </c>
+      <c r="J78" t="n">
+        <v>284</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1272801528.712151</v>
+        <v>1633668607.663687</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1408401584737177</v>
+        <v>0.1370616012986891</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03985586823110582</v>
+        <v>0.02660854806173897</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4001794107.514893</v>
+        <v>4108403298.919303</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1110865621416286</v>
+        <v>0.0707859042596406</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02863877350906897</v>
+        <v>0.02563857740458113</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>139</v>
+      </c>
+      <c r="J80" t="n">
+        <v>283</v>
+      </c>
+      <c r="K80" t="n">
+        <v>66.83022255364423</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4520732594.44923</v>
+        <v>4553370686.164199</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09775715131305307</v>
+        <v>0.1238327997862477</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02614295348495503</v>
+        <v>0.03289445032652136</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>130</v>
+      </c>
+      <c r="J81" t="n">
+        <v>284</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5054133216.256727</v>
+        <v>5381316451.360141</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1338500045895096</v>
+        <v>0.1937031037502576</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02070972631034425</v>
+        <v>0.02450627123482208</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>210</v>
+      </c>
+      <c r="J82" t="n">
+        <v>284</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2020413345.764117</v>
+        <v>1943399956.001662</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1265013524700706</v>
+        <v>0.1347804300090555</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04450917634634806</v>
+        <v>0.02906198747236292</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1995951714.128436</v>
+        <v>2064561036.737211</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09102321717731894</v>
+        <v>0.084146511799281</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0349545056115894</v>
+        <v>0.04932269770165945</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2834897827.202459</v>
+        <v>2881392074.874946</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1712746677861794</v>
+        <v>0.1144769275258681</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0467460587168728</v>
+        <v>0.05154369253165906</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2158570706.735242</v>
+        <v>2086241395.186271</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1258481168809091</v>
+        <v>0.1349444622856968</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02731912071734422</v>
+        <v>0.02436547424683383</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1034298855.879486</v>
+        <v>1495688779.246567</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1861459537923421</v>
+        <v>0.1654037860307144</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04180195902346173</v>
+        <v>0.02847791237602617</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3108725519.386874</v>
+        <v>3560107385.636215</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1708045670781423</v>
+        <v>0.1431632582625473</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02608707347687194</v>
+        <v>0.0324045419724157</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>40</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2914606295.612186</v>
+        <v>2144407591.491489</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1052271170405573</v>
+        <v>0.1116982962622835</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02821228023471319</v>
+        <v>0.03627968390783944</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1861200107.505353</v>
+        <v>1757260332.064768</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1242320824506743</v>
+        <v>0.1206981556366809</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05461630335270599</v>
+        <v>0.05300612645264345</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2036506206.567566</v>
+        <v>1344372390.012159</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1383685919272427</v>
+        <v>0.1395401752287229</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03957480201381351</v>
+        <v>0.04388885046479987</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2843211490.051513</v>
+        <v>2606205036.154498</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06646598948833264</v>
+        <v>0.07152058995561381</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04110124961411778</v>
+        <v>0.04250290652633586</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3214971057.380718</v>
+        <v>4113823256.661582</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09049283817561057</v>
+        <v>0.1401943384065562</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0547938293626232</v>
+        <v>0.03511404768353309</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>124</v>
+      </c>
+      <c r="J93" t="n">
+        <v>284</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2184483824.880057</v>
+        <v>1604837169.595808</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1388964445858303</v>
+        <v>0.1130241157994221</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03821244571169763</v>
+        <v>0.02980371817324823</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2982797019.612743</v>
+        <v>3044736504.824007</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1272686384214523</v>
+        <v>0.1344213703013541</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03593638168633101</v>
+        <v>0.04880047649046227</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1889177234.626834</v>
+        <v>2319835060.161783</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09001157507671625</v>
+        <v>0.1255311764250886</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04617377818389774</v>
+        <v>0.047225578165418</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4589193059.697219</v>
+        <v>3633207618.06404</v>
       </c>
       <c r="F97" t="n">
-        <v>0.107501050037326</v>
+        <v>0.1252093079776825</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01826834577141263</v>
+        <v>0.02782014673825995</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>141</v>
+      </c>
+      <c r="J97" t="n">
+        <v>283</v>
+      </c>
+      <c r="K97" t="n">
+        <v>84.09183357264006</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3927884846.875493</v>
+        <v>3768655978.273963</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08396450213659029</v>
+        <v>0.1074577148369665</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02176982173752072</v>
+        <v>0.02710335856035866</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>68</v>
+      </c>
+      <c r="J98" t="n">
+        <v>283</v>
+      </c>
+      <c r="K98" t="n">
+        <v>85.74858308162685</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3246416698.77795</v>
+        <v>2195906782.811652</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1404091099245993</v>
+        <v>0.1350547924131379</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03330921929796306</v>
+        <v>0.02778035797799593</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4667839595.313793</v>
+        <v>3065070792.787837</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1304322866982495</v>
+        <v>0.169964590330026</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02735466289351588</v>
+        <v>0.02659539279389124</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>121</v>
+      </c>
+      <c r="J100" t="n">
+        <v>282</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2426025992.345351</v>
+        <v>2592307738.817025</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2036280615723696</v>
+        <v>0.1478087912971632</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05757653760039576</v>
+        <v>0.03748066041821143</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
